--- a/Result Range.xlsx
+++ b/Result Range.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvin\Documents\capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B00E395-3D45-4F83-9C2F-92D34D1B9E81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08057D61-3463-4B8E-8885-C80897F41C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{59E32ECD-93E9-4937-AA89-0A2175936409}"/>
+    <workbookView xWindow="1950" yWindow="600" windowWidth="19200" windowHeight="15600" xr2:uid="{59E32ECD-93E9-4937-AA89-0A2175936409}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -106,7 +106,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +424,7 @@
   <dimension ref="E6:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,11 +439,11 @@
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>0.86504170000000002</v>
+        <v>0.86491240000000003</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>IF(F6&lt;F12,E12,IF(F6&lt;F11,E11,IF(F6&lt;F10,E10,IF(F6&lt;F9,E9,E8))))</f>
-        <v>15points</v>
+        <v>20points</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.25">

--- a/Result Range.xlsx
+++ b/Result Range.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvin\Documents\capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08057D61-3463-4B8E-8885-C80897F41C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB672F-A80E-4B6A-AD0E-3BAAD8307D62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="600" windowWidth="19200" windowHeight="15600" xr2:uid="{59E32ECD-93E9-4937-AA89-0A2175936409}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{59E32ECD-93E9-4937-AA89-0A2175936409}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="E6:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Result Range.xlsx
+++ b/Result Range.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvin\Documents\capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB672F-A80E-4B6A-AD0E-3BAAD8307D62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57D446-A212-4148-A8D7-8A2AE3DC0693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{59E32ECD-93E9-4937-AA89-0A2175936409}"/>
   </bookViews>
@@ -439,11 +439,11 @@
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>0.86491240000000003</v>
+        <v>0.86534920000000004</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>IF(F6&lt;F12,E12,IF(F6&lt;F11,E11,IF(F6&lt;F10,E10,IF(F6&lt;F9,E9,E8))))</f>
-        <v>20points</v>
+        <v>15points</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.25">

--- a/Result Range.xlsx
+++ b/Result Range.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvin\Documents\capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57D446-A212-4148-A8D7-8A2AE3DC0693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB81E98-9D03-4BC2-B0CD-39EC375988C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{59E32ECD-93E9-4937-AA89-0A2175936409}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"># 0 points: No RMSE </t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>5point</t>
+  </si>
+  <si>
+    <t>test set</t>
+  </si>
+  <si>
+    <t>Movie + User + Genre</t>
+  </si>
+  <si>
+    <t>Movie + User + Genre + RateperYear</t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB3D397-AFCD-4705-8DBB-5E448199E544}">
-  <dimension ref="E6:G20"/>
+  <dimension ref="E5:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -432,30 +441,51 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>0.86534920000000004</v>
+        <v>0.8645545</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>IF(F6&lt;F12,E12,IF(F6&lt;F11,E11,IF(F6&lt;F10,E10,IF(F6&lt;F9,E9,E8))))</f>
-        <v>15points</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+        <v>25points</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.86485190000000001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>789789</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.86424849999999998</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>11</v>
       </c>
@@ -463,7 +493,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -472,7 +502,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>9</v>
       </c>
@@ -480,7 +510,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>8</v>
       </c>
@@ -489,17 +519,17 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>2</v>
       </c>

--- a/Result Range.xlsx
+++ b/Result Range.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvin\Documents\capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB81E98-9D03-4BC2-B0CD-39EC375988C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB9460-BF01-416A-8ADE-CB43ED2E077A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{59E32ECD-93E9-4937-AA89-0A2175936409}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve"># 0 points: No RMSE </t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Movie + User + Genre + RateperYear</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB3D397-AFCD-4705-8DBB-5E448199E544}">
-  <dimension ref="E5:L20"/>
+  <dimension ref="E5:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,12 +450,12 @@
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:16" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>7</v>
       </c>
@@ -467,25 +473,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
       <c r="J7">
-        <v>789789</v>
+        <v>12345</v>
       </c>
       <c r="K7" s="1">
-        <v>0.86424849999999998</v>
+        <v>0.8645545</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0.86416999999999999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>11</v>
       </c>
@@ -493,7 +511,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -502,7 +520,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>9</v>
       </c>
@@ -510,7 +528,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>8</v>
       </c>
@@ -519,17 +537,17 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>2</v>
       </c>
